--- a/AutoTestNg/target/classes/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/target/classes/AutoTest/flow/form_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>param1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>111222333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=com.xxx.yyy(from Sheet(name="案例数据",value="E,2")},"123",123))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,17 +813,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
@@ -868,6 +872,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,7 +889,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/AutoTestNg/target/classes/AutoTest/flow/form_al.xlsx
+++ b/AutoTestNg/target/classes/AutoTest/flow/form_al.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="案例信息" sheetId="6" r:id="rId1"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>after</t>
   </si>
   <si>
@@ -231,7 +223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="form",value="A,2")}</t>
+    <t>111222333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4455</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,11 +235,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111222333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from Java(name=com.xxx.yyy(from Sheet(name="案例数据",value="E,2")},"123",123))}</t>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.test({from Sheet(name="案例数据",value="D,2")},"123",123,12.22))}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.cookie("123"))}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Java(name=AutoTest.Base.TestMethod.TestMethod.head("123"))}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,10 +689,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -716,13 +716,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -730,66 +730,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -813,17 +813,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
@@ -831,10 +831,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
@@ -869,12 +869,10 @@
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
